--- a/data/relation.xlsx
+++ b/data/relation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\RW-NPLM\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C36F588-E0B1-4659-87E2-5BE0F112F235}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7FE8BA-A719-40BE-A330-D07D57AD77F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12015" xr2:uid="{4B6FEB7E-5710-4AB2-B366-E5DCAEDD6ABB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>w</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,6 +36,38 @@
   </si>
   <si>
     <t>q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -404,23 +436,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{207B4429-EF53-42A7-9D85-68DC9ACDF268}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>5</v>
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -431,117 +463,117 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>6</v>
-      </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
         <v>4</v>
       </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
       <c r="C8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
       <c r="C9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
         <v>7</v>
       </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
       <c r="C11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -552,40 +584,106 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B14">
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
         <v>2</v>
-      </c>
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
